--- a/results/mp/logistic/corona/confidence/210/desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="139">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,25 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>crude</t>
@@ -55,69 +70,42 @@
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>cancelled</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>problem</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -136,235 +124,247 @@
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
+    <t>a</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>a</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>god</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>huge</t>
   </si>
   <si>
     <t>funny</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
     <t>boost</t>
   </si>
   <si>
-    <t>kind</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>give</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>keep</t>
   </si>
   <si>
-    <t>shop</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>stay</t>
@@ -373,37 +373,61 @@
     <t>your</t>
   </si>
   <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
     <t>our</t>
   </si>
   <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>we</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>for</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>i</t>
   </si>
   <si>
-    <t>,</t>
+    <t>it</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>at</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
     <t>are</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>in</t>
@@ -764,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,10 +796,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -833,13 +857,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -854,16 +878,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -875,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -883,13 +907,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8321917808219178</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C4">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D4">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -901,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -925,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -933,13 +957,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -951,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -975,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -983,13 +1007,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1001,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6">
         <v>0.9444444444444444</v>
@@ -1033,13 +1057,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1051,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.9416666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1075,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1083,13 +1107,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1101,31 +1125,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8">
+        <v>0.925</v>
+      </c>
+      <c r="L8">
+        <v>111</v>
+      </c>
+      <c r="M8">
+        <v>111</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>9</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8">
-        <v>0.9393939393939394</v>
-      </c>
-      <c r="L8">
-        <v>31</v>
-      </c>
-      <c r="M8">
-        <v>31</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1133,13 +1157,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7391304347826086</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L9">
+        <v>127</v>
+      </c>
+      <c r="M9">
+        <v>127</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>15</v>
-      </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1183,13 +1207,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7105263157894737</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1201,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.9333333333333333</v>
+        <v>0.8903394255874674</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1225,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1233,13 +1257,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7027027027027027</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1251,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.8955613577023499</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>343</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>343</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1275,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1283,13 +1307,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1301,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.8947368421052632</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1325,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1333,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6551724137931034</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1351,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.8936170212765957</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1375,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1383,49 +1407,49 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="J14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>0.8839285714285714</v>
+      </c>
+      <c r="L14">
+        <v>99</v>
+      </c>
+      <c r="M14">
+        <v>99</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>13</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L14">
-        <v>32</v>
-      </c>
-      <c r="M14">
-        <v>32</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1433,13 +1457,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.64</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1451,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0.8846153846153846</v>
+        <v>0.8828125</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1475,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1483,13 +1507,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5490196078431373</v>
+        <v>0.560077519379845</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>289</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>289</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1501,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.8839285714285714</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L16">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M16">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1533,13 +1557,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.544973544973545</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C17">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1551,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17">
-        <v>0.8679245283018868</v>
+        <v>0.875</v>
       </c>
       <c r="L17">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1575,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1583,13 +1607,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5116279069767442</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1601,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18">
-        <v>0.8661971830985915</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L18">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1625,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1633,13 +1657,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4516129032258064</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1651,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19">
-        <v>0.8658536585365854</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L19">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1675,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1683,13 +1707,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4406779661016949</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1701,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>0.8604651162790697</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1725,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1733,13 +1757,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4333333333333333</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1751,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>0.8448275862068966</v>
+        <v>0.85</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1775,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1783,13 +1807,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1801,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>0.84375</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L22">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1825,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1833,13 +1857,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4102564102564102</v>
+        <v>0.3221476510067114</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1851,19 +1875,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K23">
-        <v>0.84375</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L23">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1875,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1883,13 +1907,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.325</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1901,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K24">
         <v>0.8421052631578947</v>
@@ -1933,13 +1957,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2933333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1951,19 +1975,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>0.8205128205128205</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1975,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1983,13 +2007,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2751677852348993</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C26">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2001,19 +2025,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K26">
-        <v>0.8148148148148148</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2025,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2033,13 +2057,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2727272727272727</v>
+        <v>0.1625</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2051,19 +2075,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K27">
-        <v>0.7936507936507936</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2075,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2083,13 +2107,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2727272727272727</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2101,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K28">
-        <v>0.7916666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2125,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2133,13 +2157,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2638888888888889</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C29">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2151,19 +2175,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K29">
-        <v>0.7857142857142857</v>
+        <v>0.8125</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2175,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2183,13 +2207,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2077922077922078</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2201,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30">
-        <v>0.7727272727272727</v>
+        <v>0.8</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2225,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2233,37 +2257,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1625</v>
+        <v>0.01944264419961115</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>67</v>
+        <v>3026</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K31">
-        <v>0.7727272727272727</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2283,37 +2307,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1349206349206349</v>
+        <v>0.01695713612812058</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>218</v>
+        <v>2087</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K32">
-        <v>0.7714285714285715</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2325,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2333,37 +2357,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.09919571045576407</v>
+        <v>0.01601830663615561</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>336</v>
+        <v>860</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K33">
-        <v>0.75</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2375,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2383,37 +2407,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.07333333333333333</v>
+        <v>0.01381692573402418</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>278</v>
+        <v>1142</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>0.7441176470588236</v>
+        <v>0.775</v>
       </c>
       <c r="L34">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2425,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2433,37 +2457,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.01269393511988716</v>
+        <v>0.01311336717428088</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E35">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="F35">
-        <v>0.63</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>2100</v>
+        <v>2333</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K35">
-        <v>0.7391304347826086</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2475,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2483,37 +2507,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01267427122940431</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
       <c r="F36">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2337</v>
+        <v>2266</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K36">
-        <v>0.7322175732217573</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L36">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="M36">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2525,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2533,37 +2557,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.009041007426541814</v>
+        <v>0.009028459273797841</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="E37">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="F37">
-        <v>0.74</v>
+        <v>0.4</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>3069</v>
+        <v>5049</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K37">
-        <v>0.725</v>
+        <v>0.7517006802721088</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2572,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2583,49 +2607,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.007452441655226515</v>
+        <v>0.006729200652528548</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D38">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E38">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="F38">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>5061</v>
+        <v>4871</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K38">
-        <v>0.7235494880546075</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L38">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2633,37 +2657,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.00611353711790393</v>
+        <v>0.006658343736995423</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E39">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
       <c r="F39">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2276</v>
+        <v>2387</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K39">
-        <v>0.7058823529411765</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2675,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2683,37 +2707,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005824790307548928</v>
+        <v>0.006335128286347799</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E40">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F40">
-        <v>0.41</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>4267</v>
+        <v>3137</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K40">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2725,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2733,37 +2757,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005325218714340053</v>
+        <v>0.006139677666922486</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E41">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F41">
-        <v>0.24</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>2615</v>
+        <v>2590</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K41">
-        <v>0.6914893617021277</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L41">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="M41">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2775,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2783,87 +2807,63 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00473186119873817</v>
+        <v>0.003973819541841982</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E42">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F42">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>3155</v>
+        <v>4261</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42">
+        <v>0.7196652719665272</v>
+      </c>
+      <c r="L42">
+        <v>172</v>
+      </c>
+      <c r="M42">
+        <v>172</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K42">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L42">
-        <v>18</v>
-      </c>
-      <c r="M42">
-        <v>18</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.003250050782043469</v>
-      </c>
-      <c r="C43">
-        <v>16</v>
-      </c>
-      <c r="D43">
-        <v>89</v>
-      </c>
-      <c r="E43">
-        <v>0.82</v>
-      </c>
-      <c r="F43">
-        <v>0.18</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>4907</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="K43">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2875,21 +2875,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>0.6666666666666666</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2901,21 +2901,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K45">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2927,21 +2927,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K46">
-        <v>0.6538461538461539</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2953,21 +2953,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K47">
-        <v>0.651685393258427</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L47">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2979,21 +2979,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K48">
-        <v>0.6428571428571429</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3005,21 +3005,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K49">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3031,21 +3031,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K50">
-        <v>0.6307692307692307</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L50">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M50">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3057,21 +3057,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K51">
-        <v>0.6296296296296297</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3083,21 +3083,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K52">
-        <v>0.6285714285714286</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L52">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3109,21 +3109,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K53">
-        <v>0.6153846153846154</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3135,21 +3135,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K54">
-        <v>0.6086956521739131</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3161,15 +3161,15 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K55">
-        <v>0.5416666666666666</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L55">
         <v>13</v>
@@ -3187,21 +3187,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K56">
-        <v>0.5342465753424658</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L56">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3213,21 +3213,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K57">
-        <v>0.5333333333333333</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3239,47 +3239,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K58">
-        <v>0.5161290322580645</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K59">
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L59">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3291,15 +3291,15 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K60">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L60">
         <v>21</v>
@@ -3317,21 +3317,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K61">
-        <v>0.4406779661016949</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L61">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3343,21 +3343,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K62">
-        <v>0.4375</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3369,21 +3369,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K63">
-        <v>0.4117647058823529</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3395,21 +3395,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K64">
-        <v>0.3157894736842105</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3421,21 +3421,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K65">
-        <v>0.2954545454545455</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3447,15 +3447,15 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K66">
-        <v>0.2459016393442623</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L66">
         <v>15</v>
@@ -3473,15 +3473,15 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K67">
-        <v>0.2083333333333333</v>
+        <v>0.234375</v>
       </c>
       <c r="L67">
         <v>15</v>
@@ -3499,21 +3499,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K68">
-        <v>0.1209677419354839</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3525,47 +3525,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K69">
-        <v>0.08648648648648649</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>169</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K70">
-        <v>0.06168831168831169</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M70">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3577,21 +3577,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>289</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K71">
-        <v>0.05301645338208409</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="L71">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M71">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3603,267 +3603,267 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>518</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K72">
-        <v>0.04567307692307692</v>
+        <v>0.05677655677655678</v>
       </c>
       <c r="L72">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M72">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>397</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K73">
-        <v>0.0408673894912427</v>
+        <v>0.04933110367892977</v>
       </c>
       <c r="L73">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M73">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>1150</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K74">
-        <v>0.03117505995203837</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="L74">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N74">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K75">
-        <v>0.02491694352159468</v>
+        <v>0.04316546762589928</v>
       </c>
       <c r="L75">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M75">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N75">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="O75">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>587</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K76">
-        <v>0.02131979695431472</v>
+        <v>0.03724928366762178</v>
       </c>
       <c r="L76">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M76">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N76">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>964</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="K77">
-        <v>0.01654757427604362</v>
+        <v>0.03403141361256545</v>
       </c>
       <c r="L77">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M77">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="N77">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="O77">
-        <v>0.24</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>2615</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="K78">
-        <v>0.01465863453815261</v>
+        <v>0.03117505995203837</v>
       </c>
       <c r="L78">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M78">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="N78">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="O78">
-        <v>0.18</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>4907</v>
+        <v>404</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K79">
-        <v>0.0145413870246085</v>
+        <v>0.02735562310030395</v>
       </c>
       <c r="L79">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M79">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>881</v>
+        <v>960</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K80">
-        <v>0.01446540880503145</v>
+        <v>0.02552719200887902</v>
       </c>
       <c r="L80">
         <v>23</v>
       </c>
       <c r="M80">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N80">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>1567</v>
+        <v>878</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>0.01443695861405197</v>
+        <v>0.02521640948438088</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="M81">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="N81">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O81">
-        <v>0.06000000000000005</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>1024</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3871,233 +3871,545 @@
         <v>127</v>
       </c>
       <c r="K82">
-        <v>0.01437371663244353</v>
+        <v>0.02402957486136784</v>
       </c>
       <c r="L82">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M82">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N82">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O82">
-        <v>0.22</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>2400</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K83">
+        <v>0.02391441157960982</v>
+      </c>
+      <c r="L83">
+        <v>38</v>
+      </c>
+      <c r="M83">
         <v>43</v>
       </c>
-      <c r="K83">
-        <v>0.01287302516091281</v>
-      </c>
-      <c r="L83">
-        <v>66</v>
-      </c>
-      <c r="M83">
-        <v>104</v>
-      </c>
       <c r="N83">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="O83">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>5061</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K84">
-        <v>0.01255230125523013</v>
+        <v>0.02329450915141431</v>
       </c>
       <c r="L84">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M84">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N84">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="O84">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>2360</v>
+        <v>587</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K85">
-        <v>0.01250977326035966</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="L85">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M85">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N85">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="O85">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>1263</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K86">
-        <v>0.01023255813953488</v>
+        <v>0.02211538461538462</v>
       </c>
       <c r="L86">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M86">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N86">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>2128</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="K87">
-        <v>0.00973006905210295</v>
+        <v>0.02130325814536341</v>
       </c>
       <c r="L87">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M87">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N87">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="O87">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>3155</v>
+        <v>781</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>0.008366256100395073</v>
+        <v>0.01853717509570824</v>
       </c>
       <c r="L88">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="M88">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="N88">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="O88">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>4267</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="K89">
-        <v>0.008278867102396514</v>
+        <v>0.01825293350717079</v>
       </c>
       <c r="L89">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M89">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N89">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
       <c r="O89">
-        <v>0.42</v>
+        <v>0.18</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>2276</v>
+        <v>753</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K90">
+        <v>0.01729106628242075</v>
+      </c>
+      <c r="L90">
+        <v>42</v>
+      </c>
+      <c r="M90">
+        <v>58</v>
+      </c>
+      <c r="N90">
+        <v>0.72</v>
+      </c>
+      <c r="O90">
+        <v>0.28</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K91">
+        <v>0.01710376282782212</v>
+      </c>
+      <c r="L91">
+        <v>15</v>
+      </c>
+      <c r="M91">
+        <v>16</v>
+      </c>
+      <c r="N91">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O91">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K92">
+        <v>0.01674340728338217</v>
+      </c>
+      <c r="L92">
         <v>40</v>
       </c>
-      <c r="K90">
-        <v>0.007561436672967864</v>
-      </c>
-      <c r="L90">
-        <v>16</v>
-      </c>
-      <c r="M90">
+      <c r="M92">
+        <v>45</v>
+      </c>
+      <c r="N92">
+        <v>0.89</v>
+      </c>
+      <c r="O92">
+        <v>0.11</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K93">
+        <v>0.01487862176977291</v>
+      </c>
+      <c r="L93">
+        <v>19</v>
+      </c>
+      <c r="M93">
+        <v>31</v>
+      </c>
+      <c r="N93">
+        <v>0.61</v>
+      </c>
+      <c r="O93">
+        <v>0.39</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K94">
+        <v>0.01383212826155297</v>
+      </c>
+      <c r="L94">
+        <v>44</v>
+      </c>
+      <c r="M94">
+        <v>64</v>
+      </c>
+      <c r="N94">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O94">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K95">
+        <v>0.01367454580972846</v>
+      </c>
+      <c r="L95">
+        <v>70</v>
+      </c>
+      <c r="M95">
+        <v>116</v>
+      </c>
+      <c r="N95">
+        <v>0.6</v>
+      </c>
+      <c r="O95">
+        <v>0.4</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K96">
+        <v>0.01345755693581781</v>
+      </c>
+      <c r="L96">
+        <v>13</v>
+      </c>
+      <c r="M96">
+        <v>15</v>
+      </c>
+      <c r="N96">
+        <v>0.87</v>
+      </c>
+      <c r="O96">
+        <v>0.13</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97">
+        <v>0.01159823706796567</v>
+      </c>
+      <c r="L97">
+        <v>50</v>
+      </c>
+      <c r="M97">
+        <v>67</v>
+      </c>
+      <c r="N97">
+        <v>0.75</v>
+      </c>
+      <c r="O97">
+        <v>0.25</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
+      <c r="J98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K98">
+        <v>0.0102278010227801</v>
+      </c>
+      <c r="L98">
+        <v>22</v>
+      </c>
+      <c r="M98">
+        <v>29</v>
+      </c>
+      <c r="N98">
+        <v>0.76</v>
+      </c>
+      <c r="O98">
+        <v>0.24</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17">
+      <c r="J99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99">
+        <v>0.009492168960607499</v>
+      </c>
+      <c r="L99">
+        <v>20</v>
+      </c>
+      <c r="M99">
+        <v>56</v>
+      </c>
+      <c r="N99">
+        <v>0.36</v>
+      </c>
+      <c r="O99">
+        <v>0.64</v>
+      </c>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="100" spans="10:17">
+      <c r="J100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100">
+        <v>0.009182334936598164</v>
+      </c>
+      <c r="L100">
+        <v>21</v>
+      </c>
+      <c r="M100">
         <v>43</v>
       </c>
-      <c r="N90">
-        <v>0.37</v>
-      </c>
-      <c r="O90">
-        <v>0.63</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>2100</v>
+      <c r="N100">
+        <v>0.49</v>
+      </c>
+      <c r="O100">
+        <v>0.51</v>
+      </c>
+      <c r="P100" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="101" spans="10:17">
+      <c r="J101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K101">
+        <v>0.006892024942566459</v>
+      </c>
+      <c r="L101">
+        <v>21</v>
+      </c>
+      <c r="M101">
+        <v>81</v>
+      </c>
+      <c r="N101">
+        <v>0.26</v>
+      </c>
+      <c r="O101">
+        <v>0.74</v>
+      </c>
+      <c r="P101" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="102" spans="10:17">
+      <c r="J102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K102">
+        <v>0.006388415672913117</v>
+      </c>
+      <c r="L102">
+        <v>15</v>
+      </c>
+      <c r="M102">
+        <v>46</v>
+      </c>
+      <c r="N102">
+        <v>0.33</v>
+      </c>
+      <c r="O102">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="P102" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>2333</v>
       </c>
     </row>
   </sheetData>
